--- a/myapp/files/80_distances/distances_aggregate1_corrected.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_corrected.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5157</v>
+        <v>0.5161</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5036</v>
+        <v>0.5035</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0212</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.011</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0746</v>
+        <v>0.0744</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1826</v>
+        <v>0.1829</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2065</v>
+        <v>0.2063</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3969</v>
+        <v>0.3972</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.335</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1901</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1696</v>
+        <v>0.1698</v>
       </c>
     </row>
   </sheetData>
